--- a/Phase 4/Phase 4-Team Planning.xlsx
+++ b/Phase 4/Phase 4-Team Planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YZN\Desktop\uOttawa_Teaching\CSI4142\Project\Phases_3+4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uOttawa\CSI\4142\CSI4142_Group15\Phase 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD85C54-B006-4E32-9B9E-E27A30E6D9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9D7FC5-C324-46F1-8DAF-F3B9D3EE2EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC7B5491-6718-42D3-AD60-469765C6A1D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC7B5491-6718-42D3-AD60-469765C6A1D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Phase3-TeamPlanning2023" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="43">
   <si>
     <t>Deliverable checklist</t>
   </si>
@@ -122,13 +112,55 @@
   </si>
   <si>
     <t>CSI4142 - Project 2023</t>
+  </si>
+  <si>
+    <t>N.A</t>
+  </si>
+  <si>
+    <t>Explain in data_summarization.ipynb</t>
+  </si>
+  <si>
+    <t>Not available for Classification</t>
+  </si>
+  <si>
+    <t>Proceed in phase 2</t>
+  </si>
+  <si>
+    <t>3 days</t>
+  </si>
+  <si>
+    <t>2 days</t>
+  </si>
+  <si>
+    <t>Zhiyuan Lin</t>
+  </si>
+  <si>
+    <t>Lixiong Wei</t>
+  </si>
+  <si>
+    <t>1.5 days</t>
+  </si>
+  <si>
+    <t>2 hours</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>1 day</t>
+  </si>
+  <si>
+    <t>3 hours</t>
+  </si>
+  <si>
+    <t>12 hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +172,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -219,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -246,6 +284,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,31 +603,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825036BF-4FD7-4D21-BD38-801A4B8E13C8}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="28" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -607,7 +650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
         <v>2</v>
@@ -622,7 +665,7 @@
       </c>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -633,149 +676,294 @@
       <c r="F8" s="2"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="10">
+        <v>45385</v>
+      </c>
+      <c r="D9" s="10">
+        <v>45386</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="11">
+        <v>45386</v>
+      </c>
+      <c r="D10" s="11">
+        <v>45386</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="11">
+        <v>45386</v>
+      </c>
+      <c r="D11" s="11">
+        <v>45386</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="11">
+        <v>45386</v>
+      </c>
+      <c r="D14" s="11">
+        <v>45386</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="11">
+        <v>45386</v>
+      </c>
+      <c r="D15" s="11">
+        <v>45386</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
@@ -785,34 +973,54 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="12">
+        <v>45384</v>
+      </c>
+      <c r="D23" s="12">
+        <v>45385</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="12">
+        <v>45385</v>
+      </c>
+      <c r="D24" s="12">
+        <v>45386</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
@@ -821,6 +1029,13 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -829,6 +1044,7 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="G6:G7"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
